--- a/Testing_Data/10mmFesto_May2021/Results_table.xlsx
+++ b/Testing_Data/10mmFesto_May2021/Results_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben Bolen\Documents\GitHub\Bipedal_Robot\Testing_Data\10mmFesto_May2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EECD9A43-3405-42B4-8856-A04F73DBFA83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AD877F-DDED-49DD-9499-D5443B14E611}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48" yWindow="0" windowWidth="17280" windowHeight="8508" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="FlexTest3" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Flex Test 3</t>
   </si>
@@ -54,15 +54,6 @@
     <t>muscle length</t>
   </si>
   <si>
-    <t>Image analysis</t>
-  </si>
-  <si>
-    <t>Hand measurement</t>
-  </si>
-  <si>
-    <t>Moment arm</t>
-  </si>
-  <si>
     <t>ICR</t>
   </si>
   <si>
@@ -73,6 +64,18 @@
   </si>
   <si>
     <t>Resting muscle length</t>
+  </si>
+  <si>
+    <t>Torque</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Hand</t>
+  </si>
+  <si>
+    <t>MA</t>
   </si>
 </sst>
 </file>
@@ -96,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -104,12 +107,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,175 +511,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F358BD-411F-4156-AA93-0DF96BD5C242}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="9" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <f xml:space="preserve"> 375</f>
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D3" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I5">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J5">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="K5">
+        <v>9</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>11</v>
+      </c>
+      <c r="N5">
+        <v>12</v>
+      </c>
+      <c r="O5">
+        <v>13</v>
+      </c>
+      <c r="P5">
+        <v>14</v>
+      </c>
+      <c r="Q5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6">
+        <v>33.36</v>
+      </c>
+      <c r="D6">
+        <v>30.25</v>
+      </c>
+      <c r="E6">
+        <v>29.3583</v>
+      </c>
+      <c r="F6">
+        <v>21.796299999999999</v>
+      </c>
+      <c r="G6">
+        <v>20.4618</v>
+      </c>
+      <c r="H6">
+        <v>16.458400000000001</v>
+      </c>
+      <c r="I6">
+        <v>13.3447</v>
+      </c>
+      <c r="J6">
+        <v>11.5654</v>
+      </c>
+      <c r="K6">
+        <v>10.2309</v>
+      </c>
+      <c r="L6">
+        <v>8.0068000000000001</v>
+      </c>
+      <c r="M6">
+        <v>6.6722999999999999</v>
+      </c>
+      <c r="N6">
+        <v>4.44482</v>
+      </c>
+      <c r="O6">
+        <v>2.6688999999999998</v>
+      </c>
+      <c r="P6">
+        <v>1.7793000000000001</v>
+      </c>
+      <c r="Q6">
+        <v>0.44479999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C7">
+        <v>26.827999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="C9">
+        <v>344.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
+      <c r="C10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="C11">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>33.36</v>
-      </c>
-      <c r="C5">
-        <v>26</v>
-      </c>
-      <c r="D5">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>346</v>
-      </c>
-      <c r="F5">
-        <v>13</v>
-      </c>
-      <c r="G5">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>30.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>29.3583</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>15</v>
+      <c r="C15">
+        <f>C6*SIN(C8)*C12</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Testing_Data/10mmFesto_May2021/Results_table.xlsx
+++ b/Testing_Data/10mmFesto_May2021/Results_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben Bolen\Documents\GitHub\Bipedal_Robot\Testing_Data\10mmFesto_May2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AD877F-DDED-49DD-9499-D5443B14E611}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F235CA-78C9-46D7-99F9-BE08036BF293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="84" yWindow="2544" windowWidth="20148" windowHeight="8964" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="FlexTest3" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Flex Test 3</t>
   </si>
@@ -54,9 +54,6 @@
     <t>muscle length</t>
   </si>
   <si>
-    <t>ICR</t>
-  </si>
-  <si>
     <t>Theta1</t>
   </si>
   <si>
@@ -76,6 +73,12 @@
   </si>
   <si>
     <t>MA</t>
+  </si>
+  <si>
+    <t>ICR (spline)</t>
+  </si>
+  <si>
+    <t>ICR (image)</t>
   </si>
 </sst>
 </file>
@@ -91,12 +94,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -188,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -197,6 +206,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,15 +521,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F358BD-411F-4156-AA93-0DF96BD5C242}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
@@ -534,7 +545,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <f xml:space="preserve"> 375</f>
@@ -648,16 +659,100 @@
       <c r="C7">
         <v>26.827999999999999</v>
       </c>
+      <c r="D7">
+        <v>31.173999999999999</v>
+      </c>
+      <c r="E7">
+        <v>30.936</v>
+      </c>
+      <c r="F7">
+        <v>36.081000000000003</v>
+      </c>
+      <c r="G7">
+        <v>39.67</v>
+      </c>
+      <c r="H7">
+        <v>41.189</v>
+      </c>
+      <c r="I7">
+        <v>42.613999999999997</v>
+      </c>
+      <c r="J7">
+        <v>45.732999999999997</v>
+      </c>
+      <c r="K7">
+        <v>47.826999999999998</v>
+      </c>
+      <c r="L7">
+        <v>49.954999999999998</v>
+      </c>
+      <c r="M7">
+        <v>53.13</v>
+      </c>
+      <c r="N7">
+        <v>53.673000000000002</v>
+      </c>
+      <c r="O7">
+        <v>54.198999999999998</v>
+      </c>
+      <c r="P7">
+        <v>56.56</v>
+      </c>
+      <c r="Q7">
+        <v>58.392000000000003</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>69.796000000000006</v>
+      </c>
+      <c r="D8">
+        <v>76.013000000000005</v>
+      </c>
+      <c r="E8">
+        <v>72.004999999999995</v>
+      </c>
+      <c r="F8">
+        <v>72.266999999999996</v>
+      </c>
+      <c r="G8">
+        <v>73.513000000000005</v>
+      </c>
+      <c r="H8">
+        <v>71.546000000000006</v>
+      </c>
+      <c r="I8">
+        <v>73.569000000000003</v>
+      </c>
+      <c r="J8">
+        <v>71.213999999999999</v>
+      </c>
+      <c r="K8">
+        <v>71.263999999999996</v>
+      </c>
+      <c r="L8">
+        <v>71.483000000000004</v>
+      </c>
+      <c r="M8">
+        <v>69.388000000000005</v>
+      </c>
+      <c r="N8">
+        <v>67.569999999999993</v>
+      </c>
+      <c r="O8">
+        <v>76.22</v>
+      </c>
+      <c r="P8">
+        <v>75.853999999999999</v>
+      </c>
+      <c r="Q8">
+        <v>80.569999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -671,7 +766,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
@@ -679,6 +774,20 @@
       <c r="C10">
         <v>13</v>
       </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
@@ -688,37 +797,159 @@
       <c r="C11">
         <v>341</v>
       </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
+      <c r="C12">
+        <v>227.25529256044501</v>
+      </c>
+      <c r="D12">
+        <v>227.11095915164699</v>
+      </c>
+      <c r="E12">
+        <v>227.11887321099701</v>
+      </c>
+      <c r="F12">
+        <v>226.94670872516599</v>
+      </c>
+      <c r="G12">
+        <v>226.823290852322</v>
+      </c>
+      <c r="H12">
+        <v>226.76964266400799</v>
+      </c>
+      <c r="I12">
+        <v>226.718346711431</v>
+      </c>
+      <c r="J12">
+        <v>226.60216783337199</v>
+      </c>
+      <c r="K12">
+        <v>226.52083111972399</v>
+      </c>
+      <c r="L12">
+        <v>226.435496546807</v>
+      </c>
+      <c r="M12">
+        <v>226.30342718242301</v>
+      </c>
+      <c r="N12">
+        <v>226.280296128244</v>
+      </c>
+      <c r="O12">
+        <v>226.25774285008001</v>
+      </c>
+      <c r="P12">
+        <v>226.154785967968</v>
+      </c>
+      <c r="Q12">
+        <v>226.07303202531801</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <f>C6*SIN(C8)*C12</f>
-        <v>0</v>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <f>C6*SIN((C8*3.14/180))*C12/1000</f>
+        <v>7.1131365370759703</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:P16" si="0">D6*SIN((D8*3.14/180))*D12/1000</f>
+        <v>6.665293601464013</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>6.3403435930962857</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>4.7106025696429512</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>4.449527718537273</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>3.5395966942117902</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>2.9013729369220007</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>2.480600053528613</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>2.1942340491443448</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>1.7187980050739946</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>1.4129786151701191</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>0.92945504963159042</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>0.58638156423704113</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>0.39012887220271858</v>
+      </c>
+      <c r="Q16">
+        <f>Q6*SIN((Q8*3.14/180))*Q12/1000</f>
+        <v>9.9186634236840099E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>